--- a/Prototype/Docs/AmbaSat-1 BOM.xlsx
+++ b/Prototype/Docs/AmbaSat-1 BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AmbaSat\AmbaSat-1\Prototype\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D6DD1-6B28-4C7C-BBCE-700847DC2EF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ADCA5C-6B24-45C9-8761-0685A4552978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E11FA6A7-B09D-4B84-9356-8E0281B6BA89}"/>
   </bookViews>
   <sheets>
-    <sheet name="V1.01" sheetId="2" r:id="rId1"/>
+    <sheet name="V1.02" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>https://uk.farnell.com/murata/cstcr4m00g55z-r0/resonator-ceramic-4mhz-smd/dp/2470364</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>AmbaSat-1 Prototype BOM</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -244,6 +247,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -559,32 +565,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600CB201-AD6E-41B2-92F5-2945920C6000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,143 +600,182 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>1.42</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>0.217</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>0.09</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>0.23</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5">
         <v>0.16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="18">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5">
         <v>0.25</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5">
         <v>0.23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5">
         <v>0.33</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="5">
         <v>0.03</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="5">
         <v>0.23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="5">
         <v>0.09</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -740,11 +785,14 @@
       <c r="C16" s="6">
         <v>4.67</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -754,11 +802,14 @@
       <c r="C17" s="6">
         <v>1.6</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -768,85 +819,99 @@
       <c r="C18" s="6">
         <v>4.95</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="10"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="4"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="17"/>
+      <c r="D35" s="10"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{A8F72DF7-DEDB-424F-8CD2-CE2F9B0FF1B7}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{066F1858-E3AD-4CE8-8EC8-09DD9DFD1518}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{FF630D5E-8B3A-4D1B-92FA-E126D9A1600C}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{5349C06B-BD6D-488B-A0C9-1714F680BCD8}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{73CB6F21-745D-420D-ACB0-C8581E29DB0B}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{2B551C80-F20F-4C0C-9F26-F136EE3E25A3}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{A0AEC81F-AB94-4088-B360-D72D3F10B502}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{5E5A5B58-53AA-45AD-AF49-0240DA7A3656}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{1D791640-3F99-4EC9-8101-935CB64DF055}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{A7CA27AC-97BD-4C84-95A3-BE1F5855318C}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{5C7CEB6C-0D83-40F9-A3E4-CD9F3028718B}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{30777744-31D7-4F9D-B34F-F45EFD7D0625}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{B88996D1-77A1-4C0C-9FB4-ADA57E4FA983}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{42A916D1-8BB5-478B-BCDB-E6DC9E033FCF}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{A8F72DF7-DEDB-424F-8CD2-CE2F9B0FF1B7}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{066F1858-E3AD-4CE8-8EC8-09DD9DFD1518}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{FF630D5E-8B3A-4D1B-92FA-E126D9A1600C}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{5349C06B-BD6D-488B-A0C9-1714F680BCD8}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{73CB6F21-745D-420D-ACB0-C8581E29DB0B}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{2B551C80-F20F-4C0C-9F26-F136EE3E25A3}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{A0AEC81F-AB94-4088-B360-D72D3F10B502}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{5E5A5B58-53AA-45AD-AF49-0240DA7A3656}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{1D791640-3F99-4EC9-8101-935CB64DF055}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{A7CA27AC-97BD-4C84-95A3-BE1F5855318C}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{5C7CEB6C-0D83-40F9-A3E4-CD9F3028718B}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{30777744-31D7-4F9D-B34F-F45EFD7D0625}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{B88996D1-77A1-4C0C-9FB4-ADA57E4FA983}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{42A916D1-8BB5-478B-BCDB-E6DC9E033FCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
